--- a/src/test/java/Sheet.xlsx
+++ b/src/test/java/Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Password</t>
   </si>
@@ -41,9 +41,6 @@
     <t>ProductName</t>
   </si>
   <si>
-    <t>OnePlus 11R 5G (Galactic Silver, 16GB RAM, 256GB Storage)</t>
-  </si>
-  <si>
     <t>oneplus 11r mobile</t>
   </si>
   <si>
@@ -53,22 +50,28 @@
     <t>OnePlus 10 Pro 5G (Volcanic Black, 8GB RAM, 128GB Storage)</t>
   </si>
   <si>
+    <t>7670969796@axl</t>
+  </si>
+  <si>
+    <t>Upiid</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>7670969796</t>
+  </si>
+  <si>
+    <t>OnePlus 11R 5G (Sonic Black, 8GB RAM, 128GB Storage)</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
     <t>Cvv</t>
-  </si>
-  <si>
-    <t>7670969796@axl</t>
-  </si>
-  <si>
-    <t>Upiid</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>7670969796</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -131,6 +134,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -414,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,8 +429,7 @@
     <col min="3" max="3" width="64.36328125" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" customWidth="1"/>
     <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="6" max="7" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -440,57 +443,59 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>738</v>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
